--- a/Hardware/ALAB.xlsx
+++ b/Hardware/ALAB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A927626-384D-2440-9C95-FBCA10EC00A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6FF6A3-4E64-E64F-9D21-42C1F7FF2BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -1900,11 +1900,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>98.68</v>
+    <v>99.84</v>
     <v>36.215000000000003</v>
-    <v>2.7</v>
-    <v>2.2599999999999998</v>
-    <v>2.3563999999999998E-2</v>
+    <v>2.6179999999999999</v>
+    <v>-3.68</v>
+    <v>-3.7485999999999998E-2</v>
+    <v>-0.14000000000000001</v>
+    <v>-1.482E-3</v>
     <v>USD</v>
     <v>Astera Labs, Inc. provides semiconductor-based connectivity solutions for cloud and artificial intelligence (AI) infrastructure. The Company has developed and deployed its Intelligent Connectivity Platform built from the ground up for cloud and AI infrastructure. Its Intelligent Connectivity Platform comprises semiconductor-based, high-speed, mixed-signal connectivity products that integrate a matrix of microcontrollers and sensors, and COSMOS, its software suite, which is embedded in its connectivity products and integrated into its customers’ systems. Its patented software-defined Intelligent Connectivity Platform delivers critical connectivity performance, enables flexibility and customization, and supports observability and predictive analytics. Its products include Aries PCIe/CXL Smart DSP Retimers, Taurus Ethernet Smart Cable Modules and Leo CXL Memory Connectivity Controllers. It also provides its connectivity products in various form factors, including ICs, boards, and modules.</v>
     <v>267</v>
@@ -1912,23 +1914,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>2901 Tasman Dr. Suite 205, SANTA CLARA, CA, 95054 US</v>
-    <v>98.68</v>
+    <v>99.84</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45602.893287580468</v>
-    <v>86.5</v>
-    <v>15024950000</v>
+    <v>45604.04161708281</v>
+    <v>94.41</v>
+    <v>14802491583</v>
     <v>ASTERA LABS, INC</v>
     <v>ASTERA LABS, INC</v>
-    <v>90</v>
+    <v>99</v>
     <v>0</v>
-    <v>95.91</v>
     <v>98.17</v>
+    <v>94.49</v>
+    <v>94.35</v>
     <v>156656700</v>
     <v>ALAB</v>
     <v>ASTERA LABS, INC (XNAS:ALAB)</v>
-    <v>1100</v>
-    <v>4655674</v>
+    <v>6308086</v>
+    <v>5211106</v>
     <v>2017</v>
   </rv>
   <rv s="1">
@@ -1956,6 +1959,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1975,6 +1980,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1991,7 +1997,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="41">
+    <a count="44">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2002,13 +2008,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2071,13 +2080,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2120,6 +2135,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2127,6 +2145,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2827,14 +2848,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>98.17</v>
+        <v>94.49</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="41">
         <f ca="1">A5/F10</f>
-        <v>39.22963446475196</v>
+        <v>38.648803088772844</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -2874,14 +2895,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>2.3563999999999998E-2</v>
+        <v>-3.7485999999999998E-2</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="41">
         <f ca="1">A5/F15</f>
-        <v>121.16895161290323</v>
+        <v>119.37493212096774</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
@@ -2922,14 +2943,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>15024950000</v>
+        <v>14802491583</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="42">
         <f ca="1">F18/A5</f>
-        <v>3.5940219435006441E-3</v>
+        <v>3.648034501300888E-3</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
@@ -2971,7 +2992,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="40" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>2.7</v>
+        <v>2.6179999999999999</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -3004,7 +3025,7 @@
       </c>
       <c r="K6" s="48">
         <f ca="1">K5/A3-1</f>
-        <v>-0.91792826663289573</v>
+        <v>-0.91473190745424249</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>13</v>

--- a/Hardware/ALAB.xlsx
+++ b/Hardware/ALAB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6FF6A3-4E64-E64F-9D21-42C1F7FF2BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A84D15-0038-D441-A4AF-FF662054477E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -1900,13 +1900,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>99.84</v>
+    <v>100.09</v>
     <v>36.215000000000003</v>
-    <v>2.6179999999999999</v>
-    <v>-3.68</v>
-    <v>-3.7485999999999998E-2</v>
-    <v>-0.14000000000000001</v>
-    <v>-1.482E-3</v>
+    <v>3.5339999999999998</v>
+    <v>4.8</v>
+    <v>5.3109000000000003E-2</v>
+    <v>0.43</v>
+    <v>4.5179999999999994E-3</v>
     <v>USD</v>
     <v>Astera Labs, Inc. provides semiconductor-based connectivity solutions for cloud and artificial intelligence (AI) infrastructure. The Company has developed and deployed its Intelligent Connectivity Platform built from the ground up for cloud and AI infrastructure. Its Intelligent Connectivity Platform comprises semiconductor-based, high-speed, mixed-signal connectivity products that integrate a matrix of microcontrollers and sensors, and COSMOS, its software suite, which is embedded in its connectivity products and integrated into its customers’ systems. Its patented software-defined Intelligent Connectivity Platform delivers critical connectivity performance, enables flexibility and customization, and supports observability and predictive analytics. Its products include Aries PCIe/CXL Smart DSP Retimers, Taurus Ethernet Smart Cable Modules and Leo CXL Memory Connectivity Controllers. It also provides its connectivity products in various form factors, including ICs, boards, and modules.</v>
     <v>267</v>
@@ -1914,24 +1914,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>2901 Tasman Dr. Suite 205, SANTA CLARA, CA, 95054 US</v>
-    <v>99.84</v>
+    <v>96.48</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45604.04161708281</v>
-    <v>94.41</v>
-    <v>14802491583</v>
+    <v>45616.041160277346</v>
+    <v>90.15</v>
+    <v>15096585462</v>
     <v>ASTERA LABS, INC</v>
     <v>ASTERA LABS, INC</v>
-    <v>99</v>
+    <v>90.6</v>
     <v>0</v>
-    <v>98.17</v>
-    <v>94.49</v>
-    <v>94.35</v>
-    <v>156656700</v>
+    <v>90.38</v>
+    <v>95.18</v>
+    <v>95.61</v>
+    <v>158610900</v>
     <v>ALAB</v>
     <v>ASTERA LABS, INC (XNAS:ALAB)</v>
-    <v>6308086</v>
-    <v>5211106</v>
+    <v>6027676</v>
+    <v>5171973</v>
     <v>2017</v>
   </rv>
   <rv s="1">
@@ -2848,14 +2848,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>94.49</v>
+        <v>95.18</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="41">
         <f ca="1">A5/F10</f>
-        <v>38.648803088772844</v>
+        <v>39.416672224543078</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -2869,7 +2869,7 @@
       </c>
       <c r="G3" s="45" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">_FV(A1,"Shares outstanding",TRUE)*(1+(5*C6))</f>
-        <v>156656700</v>
+        <v>158610900</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>4</v>
@@ -2895,14 +2895,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-3.7485999999999998E-2</v>
+        <v>5.3109000000000003E-2</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="41">
         <f ca="1">A5/F15</f>
-        <v>119.37493212096774</v>
+        <v>121.74665695161291</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
@@ -2943,14 +2943,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>14802491583</v>
+        <v>15096585462</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="42">
         <f ca="1">F18/A5</f>
-        <v>3.648034501300888E-3</v>
+        <v>3.5769677942025218E-3</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
@@ -2977,7 +2977,7 @@
       </c>
       <c r="K5" s="47">
         <f ca="1">I5/G3</f>
-        <v>8.056982064648631</v>
+        <v>7.9577142693663632</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>11</v>
@@ -2992,7 +2992,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="40" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>2.6179999999999999</v>
+        <v>3.5339999999999998</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="K6" s="48">
         <f ca="1">K5/A3-1</f>
-        <v>-0.91473190745424249</v>
+        <v>-0.91639299990159317</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>13</v>
